--- a/ADMA.xlsx
+++ b/ADMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD8E5F3-DFAF-40D5-9AAD-60C4A9535516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5E7F21-40D2-4253-86D6-AEBF1298B443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27780" yWindow="4335" windowWidth="27240" windowHeight="15915" activeTab="1" xr2:uid="{C805B1BA-B66D-4BA0-8D01-D55633D0E2D4}"/>
+    <workbookView xWindow="51220" yWindow="2460" windowWidth="24800" windowHeight="15720" xr2:uid="{C805B1BA-B66D-4BA0-8D01-D55633D0E2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -459,12 +459,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1021,17 +1015,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B465B17E-8CAF-402D-804E-49EB209CC6AE}">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>94</v>
       </c>
@@ -1052,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.79</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
@@ -1070,13 +1064,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="11">
-        <v>242</v>
+        <v>244.66426300000001</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>96</v>
       </c>
@@ -1086,36 +1080,37 @@
       </c>
       <c r="L4" s="11">
         <f>+L2*L3</f>
-        <v>4789.1799999999994</v>
+        <v>3669.963945</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="I5" s="14"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="11">
-        <v>88</v>
+        <v>61.384999999999998</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
       <c r="I6" s="14"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="11">
-        <v>131</v>
+        <f>70.084+2.344</f>
+        <v>72.427999999999997</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="I7" s="14"/>
       <c r="K7" t="s">
@@ -1123,14 +1118,14 @@
       </c>
       <c r="L7" s="11">
         <f>+L4-L5+L6</f>
-        <v>4832.1799999999994</v>
+        <v>3681.0069449999996</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -1149,28 +1144,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCB23D-CE21-4A3B-B18A-E37ACD1D9607}">
   <dimension ref="A1:HZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BQ3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BV3" sqref="BV3"/>
+      <selection pane="bottomRight" activeCell="BJ16" sqref="BJ16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="79" width="9.140625" style="2"/>
+    <col min="2" max="2" width="24.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="79" width="9.1796875" style="2"/>
     <col min="80" max="80" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="16384" width="9.140625" style="2"/>
+    <col min="81" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:234" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:234" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:234" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1418,7 +1413,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:234" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:234" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>59</v>
       </c>
@@ -1594,6 +1589,9 @@
       <c r="BG3" s="8">
         <v>114.8002</v>
       </c>
+      <c r="BI3" s="8">
+        <v>134.22399999999999</v>
+      </c>
       <c r="BS3" s="8">
         <f>SUM(BC3:BF3)</f>
         <v>418.84900000000005</v>
@@ -1643,7 +1641,7 @@
         <v>2227.1468434214698</v>
       </c>
     </row>
-    <row r="4" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>60</v>
       </c>
@@ -1819,6 +1817,9 @@
       <c r="BG4" s="6">
         <v>53.704999999999998</v>
       </c>
+      <c r="BI4" s="6">
+        <v>58.597999999999999</v>
+      </c>
       <c r="BS4" s="6">
         <f>SUM(BC4:BF4)</f>
         <v>196.084</v>
@@ -1868,7 +1869,7 @@
         <v>779.50139519751428</v>
       </c>
     </row>
-    <row r="5" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>61</v>
       </c>
@@ -2051,6 +2052,10 @@
         <f>+BG3-BG4</f>
         <v>61.095200000000006</v>
       </c>
+      <c r="BI5" s="6">
+        <f>+BI3-BI4</f>
+        <v>75.625999999999991</v>
+      </c>
       <c r="BS5" s="6">
         <f>+BS3-BS4</f>
         <v>222.76500000000004</v>
@@ -2100,7 +2105,7 @@
         <v>1447.6454482239556</v>
       </c>
     </row>
-    <row r="6" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>55</v>
       </c>
@@ -2267,7 +2272,7 @@
         <v>16.608000000000001</v>
       </c>
       <c r="BE6" s="6">
-        <f t="shared" ref="BE6:BF8" si="11">+BD6</f>
+        <f t="shared" ref="BE6:BE8" si="11">+BD6</f>
         <v>16.608000000000001</v>
       </c>
       <c r="BF6" s="6">
@@ -2275,6 +2280,9 @@
       </c>
       <c r="BG6" s="6">
         <v>24.079000000000001</v>
+      </c>
+      <c r="BI6" s="6">
+        <v>21.776</v>
       </c>
       <c r="BS6" s="6">
         <f t="shared" ref="BS6:BS8" si="12">SUM(BC6:BF6)</f>
@@ -2325,7 +2333,7 @@
         <v>208.6569840679428</v>
       </c>
     </row>
-    <row r="7" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>56</v>
       </c>
@@ -2501,6 +2509,9 @@
       <c r="BG7" s="6">
         <v>0.82599999999999996</v>
       </c>
+      <c r="BI7" s="6">
+        <v>1.528</v>
+      </c>
       <c r="BS7" s="6">
         <f t="shared" si="12"/>
         <v>1.911</v>
@@ -2550,7 +2561,7 @@
         <v>5.4523060253762141</v>
       </c>
     </row>
-    <row r="8" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>69</v>
       </c>
@@ -2624,6 +2635,9 @@
       <c r="BG8" s="6">
         <v>1.286</v>
       </c>
+      <c r="BI8" s="6">
+        <v>1.272</v>
+      </c>
       <c r="BS8" s="6">
         <f t="shared" si="12"/>
         <v>3.1609999999999996</v>
@@ -2673,7 +2687,7 @@
         <v>9.0187019080137194</v>
       </c>
     </row>
-    <row r="9" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>70</v>
       </c>
@@ -2894,7 +2908,7 @@
         <v>18.11</v>
       </c>
       <c r="BE9" s="7">
-        <f t="shared" ref="BE9:BG9" si="20">+BE8+BE7+BE6</f>
+        <f t="shared" ref="BE9:BI9" si="20">+BE8+BE7+BE6</f>
         <v>18.11</v>
       </c>
       <c r="BF9" s="7">
@@ -2905,8 +2919,14 @@
         <f t="shared" si="20"/>
         <v>26.191000000000003</v>
       </c>
-      <c r="BH9" s="7"/>
-      <c r="BI9" s="7"/>
+      <c r="BH9" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BI9" s="7">
+        <f t="shared" si="20"/>
+        <v>24.576000000000001</v>
+      </c>
       <c r="BJ9" s="7"/>
       <c r="BS9" s="7">
         <f>+BS8+BS7+BS6</f>
@@ -2957,7 +2977,7 @@
         <v>223.12799200133273</v>
       </c>
     </row>
-    <row r="10" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>71</v>
       </c>
@@ -3178,7 +3198,7 @@
         <v>39.39</v>
       </c>
       <c r="BE10" s="7">
-        <f t="shared" ref="BE10:BG10" si="28">+BE5-BE9</f>
+        <f t="shared" ref="BE10:BI10" si="28">+BE5-BE9</f>
         <v>44.722000000000001</v>
       </c>
       <c r="BF10" s="7">
@@ -3189,8 +3209,14 @@
         <f t="shared" si="28"/>
         <v>34.904200000000003</v>
       </c>
-      <c r="BH10" s="7"/>
-      <c r="BI10" s="7"/>
+      <c r="BH10" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BI10" s="7">
+        <f t="shared" si="28"/>
+        <v>51.04999999999999</v>
+      </c>
       <c r="BJ10" s="7"/>
       <c r="BS10" s="7">
         <f>+BS5-BS9</f>
@@ -3241,7 +3267,7 @@
         <v>1224.5174562226227</v>
       </c>
     </row>
-    <row r="11" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>72</v>
       </c>
@@ -3414,6 +3440,9 @@
       <c r="BG11" s="6">
         <v>-1.431</v>
       </c>
+      <c r="BI11" s="6">
+        <v>-1.675</v>
+      </c>
       <c r="BT11" s="6">
         <f t="shared" ref="BT11:CD11" si="35">+BS21*$CD$23</f>
         <v>0</v>
@@ -3459,7 +3488,7 @@
         <v>315.20045531329401</v>
       </c>
     </row>
-    <row r="12" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>73</v>
       </c>
@@ -3642,8 +3671,14 @@
         <f>+BG10+BG11</f>
         <v>33.473200000000006</v>
       </c>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="7"/>
+      <c r="BH12" s="7">
+        <f>+BH10+BH11</f>
+        <v>0</v>
+      </c>
+      <c r="BI12" s="7">
+        <f>+BI10+BI11</f>
+        <v>49.374999999999993</v>
+      </c>
       <c r="BJ12" s="7"/>
       <c r="BS12" s="6">
         <f>+BS10+BS11</f>
@@ -3694,7 +3729,7 @@
         <v>1539.7179115359168</v>
       </c>
     </row>
-    <row r="13" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>74</v>
       </c>
@@ -3865,6 +3900,9 @@
       </c>
       <c r="BG13" s="6">
         <v>6.5460000000000003</v>
+      </c>
+      <c r="BI13" s="6">
+        <v>11.087</v>
       </c>
       <c r="BT13" s="6">
         <f>+BT12*0.25</f>
@@ -3911,7 +3949,7 @@
         <v>384.92947788397919</v>
       </c>
     </row>
-    <row r="14" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>57</v>
       </c>
@@ -4143,8 +4181,14 @@
         <f>+BG12-BG13</f>
         <v>26.927200000000006</v>
       </c>
-      <c r="BH14" s="7"/>
-      <c r="BI14" s="7"/>
+      <c r="BH14" s="7">
+        <f>+BH12-BH13</f>
+        <v>0</v>
+      </c>
+      <c r="BI14" s="7">
+        <f>+BI12-BI13</f>
+        <v>38.287999999999997</v>
+      </c>
       <c r="BJ14" s="7"/>
       <c r="BT14" s="6">
         <f>+BT12-BT13</f>
@@ -4799,7 +4843,7 @@
         <v>5240.2407532253555</v>
       </c>
     </row>
-    <row r="15" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>77</v>
       </c>
@@ -4875,6 +4919,14 @@
         <f>+BG14/BG16</f>
         <v>0.1100523201363761</v>
       </c>
+      <c r="BH15" s="10">
+        <f>+BH14/BH16</f>
+        <v>0</v>
+      </c>
+      <c r="BI15" s="10">
+        <f>+BI14/BI16</f>
+        <v>0.15649200063190266</v>
+      </c>
       <c r="BT15" s="21">
         <f>+BT14/BT16</f>
         <v>0.78689441312648789</v>
@@ -4920,7 +4972,7 @@
         <v>4.7685609117491321</v>
       </c>
     </row>
-    <row r="16" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
@@ -4938,6 +4990,13 @@
       </c>
       <c r="BG16" s="6">
         <v>244.67635000000001</v>
+      </c>
+      <c r="BH16" s="6">
+        <f>+BG16</f>
+        <v>244.67635000000001</v>
+      </c>
+      <c r="BI16" s="6">
+        <v>244.66426300000001</v>
       </c>
       <c r="BT16" s="6">
         <f>BD16</f>
@@ -4984,7 +5043,7 @@
         <v>242.16707199999999</v>
       </c>
     </row>
-    <row r="18" spans="2:82" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>68</v>
       </c>
@@ -5021,7 +5080,7 @@
         <v>0.95532646048109959</v>
       </c>
       <c r="AZ18" s="5">
-        <f t="shared" ref="AZ18:BG18" si="79">+AZ3/AV3-1</f>
+        <f t="shared" ref="AZ18:BF18" si="79">+AZ3/AV3-1</f>
         <v>0.77286135693215341</v>
       </c>
       <c r="BA18" s="5">
@@ -5100,7 +5159,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:82" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>102</v>
       </c>
@@ -5220,7 +5279,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="21" spans="2:82" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>93</v>
       </c>
@@ -5286,7 +5345,7 @@
         <v>7458.7975399178167</v>
       </c>
     </row>
-    <row r="22" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>3</v>
       </c>
@@ -5297,7 +5356,7 @@
         <v>71.625</v>
       </c>
     </row>
-    <row r="23" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>78</v>
       </c>
@@ -5314,7 +5373,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>79</v>
       </c>
@@ -5331,7 +5390,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="25" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
@@ -5348,7 +5407,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>81</v>
       </c>
@@ -5366,7 +5425,7 @@
         <v>9684.8650259456936</v>
       </c>
     </row>
-    <row r="27" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>82</v>
       </c>
@@ -5383,10 +5442,10 @@
       </c>
       <c r="CD27" s="21">
         <f>+CD26/Main!L3</f>
-        <v>40.020103412998736</v>
+        <v>39.584305885922106</v>
       </c>
     </row>
-    <row r="28" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>83</v>
       </c>
@@ -5397,7 +5456,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="29" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>84</v>
       </c>
@@ -5409,7 +5468,7 @@
         <v>89.043000000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>85</v>
       </c>
@@ -5430,8 +5489,8 @@
         <v>510.56900000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>86</v>
       </c>
@@ -5442,7 +5501,7 @@
         <v>20.606999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>87</v>
       </c>
@@ -5453,7 +5512,7 @@
         <v>31.56</v>
       </c>
     </row>
-    <row r="34" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>88</v>
       </c>
@@ -5466,7 +5525,7 @@
         <v>1.655</v>
       </c>
     </row>
-    <row r="35" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>89</v>
       </c>
@@ -5479,7 +5538,7 @@
         <v>9.4860000000000007</v>
       </c>
     </row>
-    <row r="36" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>4</v>
       </c>
@@ -5490,7 +5549,7 @@
         <v>72.527000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>90</v>
       </c>
@@ -5501,7 +5560,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>92</v>
       </c>
@@ -5512,7 +5571,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>112</v>
       </c>
@@ -5523,7 +5582,7 @@
         <v>373.41899999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>91</v>
       </c>
